--- a/Catálogo de Erros API.xlsx
+++ b/Catálogo de Erros API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/403cdc586fcb00d5/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technology\Sistemas\Gabriel\ASPNET\Personal\FinanSist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF9754A-D975-42D5-BEC0-BA882C2790A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6DC620-256D-4E98-977F-25400CF606E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
+    <workbookView xWindow="2568" yWindow="2424" windowWidth="17196" windowHeight="9372" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD4EDD3-293F-445D-9D64-BD10B399DF5B}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Catálogo de Erros API.xlsx
+++ b/Catálogo de Erros API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technology\Sistemas\Gabriel\ASPNET\Personal\FinanSist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6DC620-256D-4E98-977F-25400CF606E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65CC49-F6A1-4C18-B0FA-A4B783BF568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="2424" windowWidth="17196" windowHeight="9372" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
+    <workbookView xWindow="-192" yWindow="2004" windowWidth="17304" windowHeight="8892" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Código</t>
   </si>
@@ -149,13 +149,43 @@
   </si>
   <si>
     <t>Entidade/Pesquisar</t>
+  </si>
+  <si>
+    <t>E0019</t>
+  </si>
+  <si>
+    <t>E0020</t>
+  </si>
+  <si>
+    <t>E0021</t>
+  </si>
+  <si>
+    <t>E0022</t>
+  </si>
+  <si>
+    <t>E0023</t>
+  </si>
+  <si>
+    <t>E0024</t>
+  </si>
+  <si>
+    <t>E0025</t>
+  </si>
+  <si>
+    <t>Tag/Create</t>
+  </si>
+  <si>
+    <t>Tag/Update</t>
+  </si>
+  <si>
+    <t>Tag/Delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +203,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +239,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD4EDD3-293F-445D-9D64-BD10B399DF5B}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +718,48 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Catálogo de Erros API.xlsx
+++ b/Catálogo de Erros API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technology\Sistemas\Gabriel\ASPNET\Personal\FinanSist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65CC49-F6A1-4C18-B0FA-A4B783BF568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D596EBC-B9EE-4D0F-9A57-FF1CF3EC4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="2004" windowWidth="17304" windowHeight="8892" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Código</t>
   </si>
@@ -179,6 +179,69 @@
   </si>
   <si>
     <t>Tag/Delete</t>
+  </si>
+  <si>
+    <t>Tag/Get</t>
+  </si>
+  <si>
+    <t>Tag/Pesquisar</t>
+  </si>
+  <si>
+    <t>Despesa/Create</t>
+  </si>
+  <si>
+    <t>Despesa/Update</t>
+  </si>
+  <si>
+    <t>E0026</t>
+  </si>
+  <si>
+    <t>E0027</t>
+  </si>
+  <si>
+    <t>E0028</t>
+  </si>
+  <si>
+    <t>E0029</t>
+  </si>
+  <si>
+    <t>E0030</t>
+  </si>
+  <si>
+    <t>E0031</t>
+  </si>
+  <si>
+    <t>E0032</t>
+  </si>
+  <si>
+    <t>E0033</t>
+  </si>
+  <si>
+    <t>E0034</t>
+  </si>
+  <si>
+    <t>E0035</t>
+  </si>
+  <si>
+    <t>E0036</t>
+  </si>
+  <si>
+    <t>E0037</t>
+  </si>
+  <si>
+    <t>E0038</t>
+  </si>
+  <si>
+    <t>E0039</t>
+  </si>
+  <si>
+    <t>E0040</t>
+  </si>
+  <si>
+    <t>Despesa/Delete</t>
+  </si>
+  <si>
+    <t>Despesa/Get</t>
   </si>
 </sst>
 </file>
@@ -554,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD4EDD3-293F-445D-9D64-BD10B399DF5B}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,20 +808,113 @@
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Catálogo de Erros API.xlsx
+++ b/Catálogo de Erros API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technology\Sistemas\Gabriel\ASPNET\Personal\FinanSist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D596EBC-B9EE-4D0F-9A57-FF1CF3EC4EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C490A9-0E86-47D3-A26E-B5A06E4A2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
+    <workbookView xWindow="1932" yWindow="1032" windowWidth="17340" windowHeight="8904" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Código</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Despesa/Get</t>
+  </si>
+  <si>
+    <t>Autentica/Refresh</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,6 +859,9 @@
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">

--- a/Catálogo de Erros API.xlsx
+++ b/Catálogo de Erros API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technology\Sistemas\Gabriel\ASPNET\Personal\FinanSist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C490A9-0E86-47D3-A26E-B5A06E4A2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B4529-FFC0-4108-9D97-2B485383A7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="1032" windowWidth="17340" windowHeight="8904" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0448C77B-701D-40CE-B106-8F1EE3774548}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Código</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Autentica/Refresh</t>
+  </si>
+  <si>
+    <t>Genérico - (Erro não mapeado)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,12 +309,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,12 +633,12 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -867,6 +877,9 @@
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
